--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H2">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I2">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J2">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2171733333333334</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N2">
-        <v>0.6515200000000001</v>
+        <v>1.263407</v>
       </c>
       <c r="O2">
-        <v>0.03179704241434194</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P2">
-        <v>0.03179704241434193</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q2">
-        <v>18.61279898083556</v>
+        <v>38.90878081589121</v>
       </c>
       <c r="R2">
-        <v>167.51519082752</v>
+        <v>350.1790273430209</v>
       </c>
       <c r="S2">
-        <v>0.007734940138137214</v>
+        <v>0.01524949871988353</v>
       </c>
       <c r="T2">
-        <v>0.007734940138137211</v>
+        <v>0.01524949871988352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H3">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I3">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J3">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.402974</v>
       </c>
       <c r="O3">
-        <v>0.8005372973958559</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P3">
-        <v>0.8005372973958557</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q3">
-        <v>468.6045827447693</v>
+        <v>505.1576571087246</v>
       </c>
       <c r="R3">
-        <v>4217.441244702924</v>
+        <v>4546.418913978521</v>
       </c>
       <c r="S3">
-        <v>0.1947384914928492</v>
+        <v>0.1979861841950241</v>
       </c>
       <c r="T3">
-        <v>0.1947384914928491</v>
+        <v>0.197986184195024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H4">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I4">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J4">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01599466666666667</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N4">
-        <v>0.047984</v>
+        <v>1.147796</v>
       </c>
       <c r="O4">
-        <v>0.002341830309445272</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P4">
-        <v>0.002341830309445271</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q4">
-        <v>1.370819846353778</v>
+        <v>35.34834220908755</v>
       </c>
       <c r="R4">
-        <v>12.337378617184</v>
+        <v>318.135079881788</v>
       </c>
       <c r="S4">
-        <v>0.0005696730224526892</v>
+        <v>0.0138540578235576</v>
       </c>
       <c r="T4">
-        <v>0.0005696730224526888</v>
+        <v>0.01385405782355759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H5">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I5">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J5">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.108915333333333</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N5">
-        <v>3.326746</v>
+        <v>2.375895</v>
       </c>
       <c r="O5">
-        <v>0.1623598410850663</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P5">
-        <v>0.1623598410850662</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q5">
-        <v>95.03937647086622</v>
+        <v>73.16975273729831</v>
       </c>
       <c r="R5">
-        <v>855.3543882377959</v>
+        <v>658.5277746356849</v>
       </c>
       <c r="S5">
-        <v>0.03949561205302587</v>
+        <v>0.02867738405840531</v>
       </c>
       <c r="T5">
-        <v>0.03949561205302586</v>
+        <v>0.0286773840584053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.70480866666666</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H6">
-        <v>257.114426</v>
+        <v>764.743774</v>
       </c>
       <c r="I6">
-        <v>0.2432597358378337</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J6">
-        <v>0.2432597358378336</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.020244</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N6">
-        <v>0.060732</v>
+        <v>1.263407</v>
       </c>
       <c r="O6">
-        <v>0.002963988795290727</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P6">
-        <v>0.002963988795290726</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q6">
-        <v>1.735008146648</v>
+        <v>107.3536263642242</v>
       </c>
       <c r="R6">
-        <v>15.615073319832</v>
+        <v>966.182637278018</v>
       </c>
       <c r="S6">
-        <v>0.0007210191313687212</v>
+        <v>0.04207505230149663</v>
       </c>
       <c r="T6">
-        <v>0.0007210191313687208</v>
+        <v>0.04207505230149662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>764.743774</v>
       </c>
       <c r="I7">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J7">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2171733333333334</v>
+        <v>5.467658</v>
       </c>
       <c r="N7">
-        <v>0.6515200000000001</v>
+        <v>16.402974</v>
       </c>
       <c r="O7">
-        <v>0.03179704241434194</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P7">
-        <v>0.03179704241434193</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q7">
-        <v>55.36065151516445</v>
+        <v>1393.785804620431</v>
       </c>
       <c r="R7">
-        <v>498.2458636364801</v>
+        <v>12544.07224158388</v>
       </c>
       <c r="S7">
-        <v>0.02300628325266795</v>
+        <v>0.546265763091458</v>
       </c>
       <c r="T7">
-        <v>0.02300628325266795</v>
+        <v>0.5462657630914577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>764.743774</v>
       </c>
       <c r="I8">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J8">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.467658</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N8">
-        <v>16.402974</v>
+        <v>1.147796</v>
       </c>
       <c r="O8">
-        <v>0.8005372973958559</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P8">
-        <v>0.8005372973958557</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q8">
-        <v>1393.785804620431</v>
+        <v>97.52998275801157</v>
       </c>
       <c r="R8">
-        <v>12544.07224158388</v>
+        <v>877.7698448221041</v>
       </c>
       <c r="S8">
-        <v>0.5792170095010865</v>
+        <v>0.03822487664818118</v>
       </c>
       <c r="T8">
-        <v>0.5792170095010863</v>
+        <v>0.03822487664818116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>764.743774</v>
       </c>
       <c r="I9">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J9">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01599466666666667</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N9">
-        <v>0.047984</v>
+        <v>2.375895</v>
       </c>
       <c r="O9">
-        <v>0.002341830309445272</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P9">
-        <v>0.002341830309445271</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q9">
-        <v>4.077273916846223</v>
+        <v>201.8834343253033</v>
       </c>
       <c r="R9">
-        <v>36.695465251616</v>
+        <v>1816.95090892773</v>
       </c>
       <c r="S9">
-        <v>0.001694396941914322</v>
+        <v>0.07912407196403404</v>
       </c>
       <c r="T9">
-        <v>0.001694396941914321</v>
+        <v>0.079124071964034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>254.9145913333333</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H10">
-        <v>764.743774</v>
+        <v>1.032361</v>
       </c>
       <c r="I10">
-        <v>0.7235353198224201</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J10">
-        <v>0.7235353198224201</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.108915333333333</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N10">
-        <v>3.326746</v>
+        <v>1.263407</v>
       </c>
       <c r="O10">
-        <v>0.1623598410850663</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P10">
-        <v>0.1623598410850662</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q10">
-        <v>282.6786990199337</v>
+        <v>0.1449213459918889</v>
       </c>
       <c r="R10">
-        <v>2544.108291179404</v>
+        <v>1.304292113927</v>
       </c>
       <c r="S10">
-        <v>0.1174730795458007</v>
+        <v>5.679894959043547E-05</v>
       </c>
       <c r="T10">
-        <v>0.1174730795458007</v>
+        <v>5.679894959043544E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>254.9145913333333</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H11">
-        <v>764.743774</v>
+        <v>1.032361</v>
       </c>
       <c r="I11">
-        <v>0.7235353198224201</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J11">
-        <v>0.7235353198224201</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.020244</v>
+        <v>5.467658</v>
       </c>
       <c r="N11">
-        <v>0.060732</v>
+        <v>16.402974</v>
       </c>
       <c r="O11">
-        <v>0.002963988795290727</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P11">
-        <v>0.002963988795290726</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q11">
-        <v>5.160490986952</v>
+        <v>1.881532293512667</v>
       </c>
       <c r="R11">
-        <v>46.444418882568</v>
+        <v>16.933790641614</v>
       </c>
       <c r="S11">
-        <v>0.002144550580950746</v>
+        <v>0.0007374279969631511</v>
       </c>
       <c r="T11">
-        <v>0.002144550580950746</v>
+        <v>0.0007374279969631506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H12">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I12">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J12">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2171733333333334</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N12">
-        <v>0.6515200000000001</v>
+        <v>1.147796</v>
       </c>
       <c r="O12">
-        <v>0.03179704241434194</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P12">
-        <v>0.03179704241434193</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q12">
-        <v>0.003536740124444445</v>
+        <v>0.1316599807062223</v>
       </c>
       <c r="R12">
-        <v>0.03183066112000001</v>
+        <v>1.184939826356</v>
       </c>
       <c r="S12">
-        <v>1.469766754312073E-06</v>
+        <v>5.160142942385429E-05</v>
       </c>
       <c r="T12">
-        <v>1.469766754312073E-06</v>
+        <v>5.160142942385426E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H13">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I13">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J13">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.467658</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N13">
-        <v>16.402974</v>
+        <v>2.375895</v>
       </c>
       <c r="O13">
-        <v>0.8005372973958559</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P13">
-        <v>0.8005372973958557</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q13">
-        <v>0.08904263308266668</v>
+        <v>0.2725312597883333</v>
       </c>
       <c r="R13">
-        <v>0.8013836977440001</v>
+        <v>2.452781338095</v>
       </c>
       <c r="S13">
-        <v>3.700353919610346E-05</v>
+        <v>0.000106813038345654</v>
       </c>
       <c r="T13">
-        <v>3.700353919610344E-05</v>
+        <v>0.0001068130383456539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01628533333333334</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H14">
-        <v>0.048856</v>
+        <v>40.467773</v>
       </c>
       <c r="I14">
-        <v>4.622337936842643E-05</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J14">
-        <v>4.622337936842642E-05</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01599466666666667</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N14">
-        <v>0.047984</v>
+        <v>1.263407</v>
       </c>
       <c r="O14">
-        <v>0.002341830309445272</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P14">
-        <v>0.002341830309445271</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q14">
-        <v>0.0002604784782222223</v>
+        <v>5.680807520290111</v>
       </c>
       <c r="R14">
-        <v>0.002344306304</v>
+        <v>51.127267682611</v>
       </c>
       <c r="S14">
-        <v>1.082473108099683E-07</v>
+        <v>0.002226476008551452</v>
       </c>
       <c r="T14">
-        <v>1.082473108099682E-07</v>
+        <v>0.002226476008551451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01628533333333334</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H15">
-        <v>0.048856</v>
+        <v>40.467773</v>
       </c>
       <c r="I15">
-        <v>4.622337936842643E-05</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J15">
-        <v>4.622337936842642E-05</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,90 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.108915333333333</v>
+        <v>5.467658</v>
       </c>
       <c r="N15">
-        <v>3.326746</v>
+        <v>16.402974</v>
       </c>
       <c r="O15">
-        <v>0.1623598410850663</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P15">
-        <v>0.1623598410850662</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q15">
-        <v>0.01805905584177778</v>
+        <v>73.75464759521134</v>
       </c>
       <c r="R15">
-        <v>0.162531502576</v>
+        <v>663.791828356902</v>
       </c>
       <c r="S15">
-        <v>7.504820528672446E-06</v>
+        <v>0.02890662160324681</v>
       </c>
       <c r="T15">
-        <v>7.504820528672444E-06</v>
+        <v>0.0289066216032468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01628533333333334</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H16">
-        <v>0.048856</v>
+        <v>40.467773</v>
       </c>
       <c r="I16">
-        <v>4.622337936842643E-05</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J16">
-        <v>4.622337936842642E-05</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.020244</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N16">
-        <v>0.060732</v>
+        <v>1.147796</v>
       </c>
       <c r="O16">
-        <v>0.002963988795290727</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P16">
-        <v>0.002963988795290726</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q16">
-        <v>0.0003296802880000001</v>
+        <v>5.160971997589779</v>
       </c>
       <c r="R16">
-        <v>0.002967122592</v>
+        <v>46.44874797830801</v>
       </c>
       <c r="S16">
-        <v>1.370055785284885E-07</v>
+        <v>0.002022737135943779</v>
       </c>
       <c r="T16">
-        <v>1.370055785284885E-07</v>
+        <v>0.002022737135943779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H17">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I17">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J17">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2171733333333334</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N17">
-        <v>0.6515200000000001</v>
+        <v>2.375895</v>
       </c>
       <c r="O17">
-        <v>0.03179704241434194</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P17">
-        <v>0.03179704241434193</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q17">
-        <v>2.512317440284444</v>
+        <v>10.68301994798167</v>
       </c>
       <c r="R17">
-        <v>22.61085696256</v>
+        <v>96.14717953183499</v>
       </c>
       <c r="S17">
-        <v>0.001044046359099825</v>
+        <v>0.004186990586831758</v>
       </c>
       <c r="T17">
-        <v>0.001044046359099824</v>
+        <v>0.004186990586831757</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>11.56825933333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H18">
-        <v>34.704778</v>
+        <v>0.268368</v>
       </c>
       <c r="I18">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J18">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.467658</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N18">
-        <v>16.402974</v>
+        <v>1.263407</v>
       </c>
       <c r="O18">
-        <v>0.8005372973958559</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P18">
-        <v>0.8005372973958557</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q18">
-        <v>63.25128568997466</v>
+        <v>0.03767311219733332</v>
       </c>
       <c r="R18">
-        <v>569.261571209772</v>
+        <v>0.339058009776</v>
       </c>
       <c r="S18">
-        <v>0.02628540226410407</v>
+        <v>1.476520374528482E-05</v>
       </c>
       <c r="T18">
-        <v>0.02628540226410407</v>
+        <v>1.476520374528482E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>11.56825933333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H19">
-        <v>34.704778</v>
+        <v>0.268368</v>
       </c>
       <c r="I19">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J19">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.01599466666666667</v>
+        <v>5.467658</v>
       </c>
       <c r="N19">
-        <v>0.047984</v>
+        <v>16.402974</v>
       </c>
       <c r="O19">
-        <v>0.002341830309445272</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P19">
-        <v>0.002341830309445271</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q19">
-        <v>0.1850304519502222</v>
+        <v>0.489114814048</v>
       </c>
       <c r="R19">
-        <v>1.665274067552</v>
+        <v>4.402033326432</v>
       </c>
       <c r="S19">
-        <v>7.689329643763198E-05</v>
+        <v>0.0001916985208555989</v>
       </c>
       <c r="T19">
-        <v>7.689329643763195E-05</v>
+        <v>0.0001916985208555988</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,25 +1647,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.56825933333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H20">
-        <v>34.704778</v>
+        <v>0.268368</v>
       </c>
       <c r="I20">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J20">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,400 +1674,90 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.108915333333333</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N20">
-        <v>3.326746</v>
+        <v>1.147796</v>
       </c>
       <c r="O20">
-        <v>0.1623598410850663</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P20">
-        <v>0.1623598410850662</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q20">
-        <v>12.82822015470978</v>
+        <v>0.03422574632533333</v>
       </c>
       <c r="R20">
-        <v>115.453981392388</v>
+        <v>0.308031716928</v>
       </c>
       <c r="S20">
-        <v>0.005331036727882344</v>
+        <v>1.341407938852875E-05</v>
       </c>
       <c r="T20">
-        <v>0.005331036727882343</v>
+        <v>1.341407938852874E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.56825933333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H21">
-        <v>34.704778</v>
+        <v>0.268368</v>
       </c>
       <c r="I21">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J21">
-        <v>0.03283470033140288</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.020244</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N21">
-        <v>0.060732</v>
+        <v>2.375895</v>
       </c>
       <c r="O21">
-        <v>0.002963988795290727</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P21">
-        <v>0.002963988795290726</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q21">
-        <v>0.234187841944</v>
+        <v>0.07084602103999998</v>
       </c>
       <c r="R21">
-        <v>2.107690577496</v>
+        <v>0.6376141893599999</v>
       </c>
       <c r="S21">
-        <v>9.732168387900686E-05</v>
+        <v>2.776664507352221E-05</v>
       </c>
       <c r="T21">
-        <v>9.732168387900684E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.1141583333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.342475</v>
-      </c>
-      <c r="I22">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="J22">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.2171733333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.6515200000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.03179704241434194</v>
-      </c>
-      <c r="P22">
-        <v>0.03179704241434193</v>
-      </c>
-      <c r="Q22">
-        <v>0.02479214577777778</v>
-      </c>
-      <c r="R22">
-        <v>0.223129312</v>
-      </c>
-      <c r="S22">
-        <v>1.030289768263933E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.030289768263933E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.1141583333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.342475</v>
-      </c>
-      <c r="I23">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="J23">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.467658</v>
-      </c>
-      <c r="N23">
-        <v>16.402974</v>
-      </c>
-      <c r="O23">
-        <v>0.8005372973958559</v>
-      </c>
-      <c r="P23">
-        <v>0.8005372973958557</v>
-      </c>
-      <c r="Q23">
-        <v>0.6241787245166666</v>
-      </c>
-      <c r="R23">
-        <v>5.617608520649999</v>
-      </c>
-      <c r="S23">
-        <v>0.0002593905986201394</v>
-      </c>
-      <c r="T23">
-        <v>0.0002593905986201393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.1141583333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.342475</v>
-      </c>
-      <c r="I24">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="J24">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.01599466666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.047984</v>
-      </c>
-      <c r="O24">
-        <v>0.002341830309445272</v>
-      </c>
-      <c r="P24">
-        <v>0.002341830309445271</v>
-      </c>
-      <c r="Q24">
-        <v>0.001825924488888889</v>
-      </c>
-      <c r="R24">
-        <v>0.0164333204</v>
-      </c>
-      <c r="S24">
-        <v>7.588013298191394E-07</v>
-      </c>
-      <c r="T24">
-        <v>7.58801329819139E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.1141583333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.342475</v>
-      </c>
-      <c r="I25">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="J25">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.108915333333333</v>
-      </c>
-      <c r="N25">
-        <v>3.326746</v>
-      </c>
-      <c r="O25">
-        <v>0.1623598410850663</v>
-      </c>
-      <c r="P25">
-        <v>0.1623598410850662</v>
-      </c>
-      <c r="Q25">
-        <v>0.1265919262611111</v>
-      </c>
-      <c r="R25">
-        <v>1.13932733635</v>
-      </c>
-      <c r="S25">
-        <v>5.260793782866169E-05</v>
-      </c>
-      <c r="T25">
-        <v>5.260793782866167E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.1141583333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.342475</v>
-      </c>
-      <c r="I26">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="J26">
-        <v>0.0003240206289749844</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.020244</v>
-      </c>
-      <c r="N26">
-        <v>0.060732</v>
-      </c>
-      <c r="O26">
-        <v>0.002963988795290727</v>
-      </c>
-      <c r="P26">
-        <v>0.002963988795290726</v>
-      </c>
-      <c r="Q26">
-        <v>0.0023110213</v>
-      </c>
-      <c r="R26">
-        <v>0.0207991917</v>
-      </c>
-      <c r="S26">
-        <v>9.603935137249078E-07</v>
-      </c>
-      <c r="T26">
-        <v>9.603935137249073E-07</v>
+        <v>2.77666450735222E-05</v>
       </c>
     </row>
   </sheetData>
